--- a/data/trans_dic/P15D$nada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Provincia-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1018476507200319</v>
+        <v>0.1019266598760447</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06929301099185056</v>
+        <v>0.06883757776789994</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08027912097912318</v>
+        <v>0.07989597409267965</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.08934814413099387</v>
+        <v>0.08573105977717986</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1152159044785895</v>
+        <v>0.1162004480372131</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0551232617950681</v>
+        <v>0.05272161153555717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1011271715580873</v>
+        <v>0.1065951957787654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02062612738952903</v>
+        <v>0.02028119493746624</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.127194786307173</v>
+        <v>0.126347775418184</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7289293554685344</v>
+        <v>0.6967093515388746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3052191620095536</v>
+        <v>0.2911786333910872</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2691533257727783</v>
+        <v>0.2780506563869138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3658145790957487</v>
+        <v>0.3731983644062744</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.4080554966748763</v>
+        <v>0.4124562166582139</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2422138370843875</v>
+        <v>0.2135683423450645</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3156239613378686</v>
+        <v>0.3217770135551599</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4729189051115071</v>
+        <v>0.4881472817963665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3003443844623142</v>
+        <v>0.2996616798864449</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1701100083512962</v>
+        <v>0.171931010218494</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.300779295884867</v>
+        <v>0.3015593508634523</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.218933250809466</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2142032624683752</v>
+        <v>0.2142032624683751</v>
       </c>
     </row>
     <row r="8">
@@ -843,37 +843,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03050900806273025</v>
+        <v>0.03007498309992479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05013684508990139</v>
+        <v>0.04950985237249542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08169046712134781</v>
+        <v>0.0869973341451112</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06078176860226597</v>
+        <v>0.03806670247322928</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07847569719481927</v>
+        <v>0.06931409855099177</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09449572718633727</v>
+        <v>0.08423028499348642</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04806596607088606</v>
+        <v>0.051121447061712</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09569740328824305</v>
+        <v>0.09668719280875446</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1094591451900655</v>
+        <v>0.1243506122430099</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5774617724842069</v>
+        <v>0.5411154805824238</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.25773422651767</v>
+        <v>0.2587756215378799</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3931431746547401</v>
+        <v>0.3884394680286566</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5609704245784417</v>
+        <v>0.5460482503750622</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4507927013027081</v>
+        <v>0.5282846213275815</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3894984539405223</v>
+        <v>0.3681443289631972</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5993507745251412</v>
+        <v>0.5884997926877197</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3248529963341701</v>
+        <v>0.3103120447508538</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3176732594251763</v>
+        <v>0.3690415035789211</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2316211169942236</v>
+        <v>0.2394727189454401</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3978593111264541</v>
+        <v>0.3863139411139505</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3566637007272856</v>
+        <v>0.3604419158506822</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04951434193832668</v>
+        <v>0.05202760827306233</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3132767855986467</v>
+        <v>0.3141597909647239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04142581676621444</v>
+        <v>0.04120193281736795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06447179050225643</v>
+        <v>0.06983966320947296</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3908138824998276</v>
+        <v>0.3964583486690991</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1462278057303619</v>
+        <v>0.1611708788769962</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08837483817713508</v>
+        <v>0.08453678375313529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3977775725904279</v>
+        <v>0.39104224359268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04631516683646471</v>
+        <v>0.04741777013268235</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1318261352503547</v>
+        <v>0.1410301573426626</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4720224954406128</v>
+        <v>0.4857645589663712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5713870554582339</v>
+        <v>0.5866049388599244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4026673734912112</v>
+        <v>0.367738076068089</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3288662967105495</v>
+        <v>0.333330855514291</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7243354434524319</v>
+        <v>0.7190786470221546</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.33739498339211</v>
+        <v>0.3090192043915234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4127809800327217</v>
+        <v>0.4140621271680484</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4805595418540675</v>
+        <v>0.4810374219641772</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5955159062560078</v>
+        <v>0.596881876683794</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2916239247117797</v>
+        <v>0.2766384244006323</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3179004047378403</v>
+        <v>0.3290406521843106</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1012536400504737</v>
+        <v>0.1054175398023665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02866817490010517</v>
+        <v>0.02897740993717745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03502077358192388</v>
+        <v>0.04090386572095607</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1824720409161627</v>
+        <v>0.183417885263181</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02540443786276675</v>
+        <v>0.02642682909754904</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02470557984954605</v>
+        <v>0.02256935116506754</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1943357462677406</v>
+        <v>0.1851383835305837</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03811086578354725</v>
+        <v>0.03919728770312918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05085040952412931</v>
+        <v>0.04618644958852347</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02336584973803061</v>
+        <v>0.02739621497606634</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5041232044243737</v>
+        <v>0.544983284233466</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2454316442188883</v>
+        <v>0.2751517749952476</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2990794952544309</v>
+        <v>0.3155775987347215</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3263997434025063</v>
+        <v>0.3272810173669479</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8536794565131801</v>
+        <v>0.8384672092475327</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4042775606941566</v>
+        <v>0.3096458377385609</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2222326187430992</v>
+        <v>0.2154405206244393</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.275657644321828</v>
+        <v>0.2666380221696044</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5373713438718134</v>
+        <v>0.5329339853860463</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2221767430657462</v>
+        <v>0.2055476154121674</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2055933752043759</v>
+        <v>0.2059683187789677</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2349373360295394</v>
+        <v>0.2288869530372905</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.09350568676592157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.198052909579652</v>
+        <v>0.1980529095796519</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0</v>
+        <v>0.04832728620844081</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr"/>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02981137817151095</v>
+        <v>0.02951648004168415</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -1284,32 +1284,32 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6955965476905316</v>
+        <v>0.6727665837721236</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.3823988620291791</v>
+        <v>0.5533533770589758</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6181885128057575</v>
+        <v>0.5691429565473961</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.3762006535878211</v>
+        <v>0.3694693632061676</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.4456487385050456</v>
+        <v>0.43509983702347</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2308132229175274</v>
+        <v>0.2449366425886231</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3563827627553816</v>
+        <v>0.2897450416337857</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5743753195479568</v>
+        <v>0.5379402177414723</v>
       </c>
     </row>
     <row r="19">
@@ -1368,40 +1368,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.101401246753078</v>
+        <v>0.1014979657098683</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.277388974006094</v>
+        <v>0.2796368931798132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1563405247272397</v>
+        <v>0.1591999457503699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2312574998448174</v>
+        <v>0.2295815588229044</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0794601437488431</v>
+        <v>0.07951586110668937</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1686518081038078</v>
+        <v>0.1728427755103557</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03426210639154387</v>
+        <v>0.03375083965392816</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2040038872212739</v>
+        <v>0.2037704228036635</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.136851062642551</v>
+        <v>0.1408298082797305</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2649293817790404</v>
+        <v>0.2664227581704153</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1143567492108094</v>
+        <v>0.1114917155245353</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2410227395631113</v>
+        <v>0.2444533754407432</v>
       </c>
     </row>
     <row r="21">
@@ -1412,40 +1412,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7499289476167663</v>
+        <v>0.7582832740697952</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6548868942742994</v>
+        <v>0.6337798266209761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4941066871607597</v>
+        <v>0.4788355726967194</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5254753089926226</v>
+        <v>0.5479872586105986</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6550389026641052</v>
+        <v>0.5761495148267541</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4890084208835038</v>
+        <v>0.4890781216526644</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2726038189566713</v>
+        <v>0.2793711479570335</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4624324072137535</v>
+        <v>0.4585343060615896</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5474910720979465</v>
+        <v>0.554303562153399</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5184049118907742</v>
+        <v>0.5010565723424227</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3141901838981387</v>
+        <v>0.3230527097334794</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4429771945931578</v>
+        <v>0.4406998354517685</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1469,7 @@
         <v>0.2065263229807055</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04420687166072944</v>
+        <v>0.04420687166072943</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2160892690286679</v>
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1574532620817408</v>
+        <v>0.1787224479986197</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2092075790694862</v>
+        <v>0.1931926998585015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08224746000628437</v>
+        <v>0.076962035665622</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05566306323486908</v>
+        <v>0.05480679496459736</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1779985516198236</v>
+        <v>0.1765853770422034</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1080179279383085</v>
+        <v>0.09713166240293541</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07396283820153417</v>
+        <v>0.07644166640143461</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1669590868992671</v>
+        <v>0.1747558466873253</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2157281101220992</v>
+        <v>0.2139598521916203</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1196587516495988</v>
+        <v>0.1258702264739067</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04918368968431909</v>
+        <v>0.04787401214727327</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5393184812331602</v>
+        <v>0.5421208863429836</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4425997019671543</v>
+        <v>0.4235498930657309</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4243360669009815</v>
+        <v>0.3866721853977674</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1762531821688618</v>
+        <v>0.1470540501998348</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4448342309192907</v>
+        <v>0.4903189721702518</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.403509991761456</v>
+        <v>0.416592067202874</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4553174911128126</v>
+        <v>0.4599207987515385</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2570876702459872</v>
+        <v>0.2809821932980539</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4395355798155912</v>
+        <v>0.4286266672774574</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3911151746513084</v>
+        <v>0.37802199128698</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.363054968058745</v>
+        <v>0.3746730169427198</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1748107893456654</v>
+        <v>0.1738189710945623</v>
       </c>
     </row>
     <row r="25">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0773358236709084</v>
+        <v>0.08008210468943058</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03764925168994428</v>
+        <v>0.03955543500367432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02936898687315136</v>
+        <v>0.02948965195293182</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02224776516634179</v>
+        <v>0.0193146960113401</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0816005554736111</v>
+        <v>0.08376216887010345</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07353482501120431</v>
+        <v>0.07124216196932158</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04770176470622151</v>
+        <v>0.04187779462038698</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05970666638474502</v>
+        <v>0.05719916286261637</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07130700959633182</v>
+        <v>0.08732478687454871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07884671103630306</v>
+        <v>0.07263041375591443</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05707678214662745</v>
+        <v>0.05404816077112475</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.415044230676982</v>
+        <v>0.4350775731410149</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3088945387320344</v>
+        <v>0.3462342760850585</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3075517826724791</v>
+        <v>0.2811018261872075</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2900756240826167</v>
+        <v>0.2621757831681115</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1900900973475979</v>
+        <v>0.168124139716441</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4229503315562496</v>
+        <v>0.4382360590478976</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3895595215577896</v>
+        <v>0.3812856993469029</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.243243324471102</v>
+        <v>0.2336720606539642</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2372245421849036</v>
+        <v>0.2376806659071542</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2897405458373071</v>
+        <v>0.3122963887055298</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2787677037190813</v>
+        <v>0.2707211327649224</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2211766520188598</v>
+        <v>0.2089422690891563</v>
       </c>
     </row>
     <row r="28">
@@ -1765,7 +1765,7 @@
         <v>0.1525810898873958</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1693758866814272</v>
+        <v>0.1693758866814273</v>
       </c>
     </row>
     <row r="29">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1454227086088456</v>
+        <v>0.1439694484624117</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1385661704445633</v>
+        <v>0.1374737962490031</v>
       </c>
     </row>
     <row r="30">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2286675902005628</v>
+        <v>0.2292229663175005</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2058205367041098</v>
+        <v>0.2029136997489991</v>
       </c>
     </row>
     <row r="31">
@@ -2131,35 +2131,35 @@
         <v>947</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2566</v>
+        <v>2550</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2171</v>
+        <v>2160</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>2468</v>
+        <v>2368</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3507</v>
+        <v>3537</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>903</v>
+        <v>864</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6539</v>
+        <v>6892</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7310</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="7">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6775</v>
+        <v>6475</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11304</v>
+        <v>10784</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5169</v>
+        <v>5340</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9891</v>
+        <v>10091</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>11272</v>
+        <v>11393</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7312</v>
+        <v>6447</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9606</v>
+        <v>9793</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7747</v>
+        <v>7996</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19420</v>
+        <v>19376</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8402</v>
+        <v>8492</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17287</v>
+        <v>17332</v>
       </c>
     </row>
     <row r="8">
@@ -2307,37 +2307,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2018</v>
+        <v>2149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1839</v>
+        <v>1152</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1246</v>
+        <v>1101</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3282</v>
+        <v>2925</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2948</v>
+        <v>3136</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3377</v>
+        <v>3412</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6505</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="11">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4534</v>
+        <v>4249</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8011</v>
+        <v>8043</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7633</v>
+        <v>7542</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13858</v>
+        <v>13489</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4041</v>
+        <v>4736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11785</v>
+        <v>11139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9516</v>
+        <v>9344</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11282</v>
+        <v>10777</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5342</v>
+        <v>6205</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>14207</v>
+        <v>14689</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14042</v>
+        <v>13634</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>21198</v>
+        <v>21422</v>
       </c>
     </row>
     <row r="12">
@@ -2484,40 +2484,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>903</v>
+        <v>948</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16558</v>
+        <v>16604</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1438</v>
+        <v>1558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15570</v>
+        <v>15795</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3905</v>
+        <v>4304</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1983</v>
+        <v>1896</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36871</v>
+        <v>36247</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1719</v>
+        <v>1760</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6461</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="15">
@@ -2528,40 +2528,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8604</v>
+        <v>8855</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30200</v>
+        <v>31004</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9354</v>
+        <v>8543</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7337</v>
+        <v>7437</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>4205</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28858</v>
+        <v>28648</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4683</v>
+        <v>4289</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11023</v>
+        <v>11058</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10781</v>
+        <v>10792</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>55200</v>
+        <v>55327</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10823</v>
+        <v>10267</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15582</v>
+        <v>16128</v>
       </c>
     </row>
     <row r="16">
@@ -2664,40 +2664,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1804</v>
+        <v>1878</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1345</v>
+        <v>1570</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>924</v>
+        <v>961</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5366</v>
+        <v>5112</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1788</v>
+        <v>1839</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3802</v>
+        <v>3453</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1110</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="19">
@@ -2708,40 +2708,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8982</v>
+        <v>9711</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7485</v>
+        <v>8391</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11482</v>
+        <v>12116</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9171</v>
+        <v>9195</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8360</v>
+        <v>8211</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6639</v>
+        <v>5085</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8083</v>
+        <v>7836</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5347</v>
+        <v>5173</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14837</v>
+        <v>14715</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10425</v>
+        <v>9644</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15371</v>
+        <v>15399</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>11158</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="20">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
@@ -2880,32 +2880,32 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5091</v>
+        <v>4924</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>3871</v>
+        <v>5602</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4631</v>
+        <v>4263</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>7448</v>
+        <v>7315</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>6740</v>
+        <v>6581</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>7610</v>
+        <v>8076</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4800</v>
+        <v>3903</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4604</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="24">
@@ -3008,40 +3008,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8419</v>
+        <v>8487</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4413</v>
+        <v>4493</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6017</v>
+        <v>5973</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>5973</v>
+        <v>6121</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1249</v>
+        <v>1231</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>5739</v>
+        <v>5732</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2668</v>
+        <v>2745</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>17423</v>
+        <v>17522</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>7397</v>
+        <v>7212</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>13051</v>
+        <v>13237</v>
       </c>
     </row>
     <row r="27">
@@ -3052,40 +3052,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6669</v>
+        <v>6743</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19876</v>
+        <v>19236</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13946</v>
+        <v>13515</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13672</v>
+        <v>14258</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6945</v>
+        <v>6108</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17318</v>
+        <v>17321</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9939</v>
+        <v>10186</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13008</v>
+        <v>12899</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10673</v>
+        <v>10806</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>34093</v>
+        <v>32952</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>20323</v>
+        <v>20896</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>23986</v>
+        <v>23863</v>
       </c>
     </row>
     <row r="28">
@@ -3188,40 +3188,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4296</v>
+        <v>4876</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13549</v>
+        <v>12512</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2174</v>
+        <v>2035</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>10622</v>
+        <v>10538</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2960</v>
+        <v>2662</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4322</v>
+        <v>4467</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>7630</v>
+        <v>7986</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>26845</v>
+        <v>26625</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6443</v>
+        <v>6777</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5619</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="31">
@@ -3232,40 +3232,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14715</v>
+        <v>14791</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28665</v>
+        <v>27431</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11218</v>
+        <v>10222</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9835</v>
+        <v>8206</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>8192</v>
+        <v>9029</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>24079</v>
+        <v>24860</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12479</v>
+        <v>12605</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>15022</v>
+        <v>16419</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>20087</v>
+        <v>19588</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>48670</v>
+        <v>47041</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>19548</v>
+        <v>20174</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>19970</v>
+        <v>19856</v>
       </c>
     </row>
     <row r="32">
@@ -3368,40 +3368,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2041</v>
+        <v>2113</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>904</v>
+        <v>950</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>658</v>
+        <v>571</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2066</v>
+        <v>2120</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1966</v>
+        <v>1905</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1613</v>
+        <v>1416</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3184</v>
+        <v>3050</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3517</v>
+        <v>4307</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>4837</v>
+        <v>4455</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>3618</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="35">
@@ -3412,40 +3412,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>10953</v>
+        <v>11481</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>7417</v>
+        <v>8314</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>10643</v>
+        <v>9728</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8575</v>
+        <v>7750</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>5120</v>
+        <v>4528</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>10706</v>
+        <v>11093</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>10415</v>
+        <v>10194</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>8227</v>
+        <v>7903</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>12649</v>
+        <v>12674</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>14292</v>
+        <v>15404</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>17100</v>
+        <v>16607</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>14020</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="36">
@@ -3548,40 +3548,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>33764</v>
+        <v>33427</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>62799</v>
+        <v>62304</v>
       </c>
     </row>
     <row r="39">
@@ -3592,40 +3592,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>53092</v>
+        <v>53221</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>93278</v>
+        <v>91961</v>
       </c>
     </row>
     <row r="40">
